--- a/ExcelData/Data_Table/ItemTable.xlsx
+++ b/ExcelData/Data_Table/ItemTable.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61ECE09-8CBD-499F-A556-AEAAE1B17585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99174690-75AD-4BF5-AC30-F1B9B7EDFA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-525" yWindow="2745" windowWidth="19560" windowHeight="12210" activeTab="1" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
   <sheets>
     <sheet name="TableList" sheetId="2" r:id="rId1"/>
     <sheet name="Soul_Table" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Soul_Table!$B$5:$O$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Soul_Table!$A$1:$O$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Soul_Table!$B$5:$P$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Soul_Table!$A$1:$P$8</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -342,7 +342,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="2" shapeId="0" xr:uid="{B05EA72A-B70A-4B23-A051-AD4B21C4C870}">
+    <comment ref="N3" authorId="2" shapeId="0" xr:uid="{F14B5DB4-1528-42B3-9A66-3FDFA3DB6D06}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.00 = 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{B05EA72A-B70A-4B23-A051-AD4B21C4C870}">
       <text>
         <r>
           <rPr>
@@ -360,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>번호</t>
   </si>
@@ -541,6 +554,30 @@
   </si>
   <si>
     <t>HitPrefeb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 프리팹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemPrefeb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -619,13 +656,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="돋움"/>
@@ -655,6 +685,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="7">
@@ -917,7 +954,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -933,124 +970,121 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1059,6 +1093,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1068,13 +1105,10 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1427,11 +1461,11 @@
       <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="31"/>
-      <c r="I2" s="30"/>
+      <c r="I2" s="32"/>
       <c r="J2" s="6" t="s">
         <v>16</v>
       </c>
@@ -1454,11 +1488,11 @@
       <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="31"/>
-      <c r="I3" s="30"/>
+      <c r="I3" s="32"/>
       <c r="J3" s="8" t="s">
         <v>20</v>
       </c>
@@ -1467,260 +1501,260 @@
     <row r="4" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="29"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="31"/>
-      <c r="I4" s="30"/>
+      <c r="I4" s="32"/>
       <c r="J4" s="10"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="29"/>
+      <c r="G5" s="34"/>
       <c r="H5" s="31"/>
-      <c r="I5" s="30"/>
+      <c r="I5" s="32"/>
       <c r="J5" s="10"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="29"/>
+      <c r="G6" s="34"/>
       <c r="H6" s="31"/>
-      <c r="I6" s="30"/>
+      <c r="I6" s="32"/>
       <c r="J6" s="10"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="10"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="15"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="17"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="16"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="17"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="16"/>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="17"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="16"/>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="17"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="16"/>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="17"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="16"/>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="17"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="16"/>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="17"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="16"/>
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="17"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="16"/>
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="17"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="16"/>
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="16"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="15"/>
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="29"/>
+      <c r="G20" s="34"/>
       <c r="H20" s="31"/>
-      <c r="I20" s="30"/>
+      <c r="I20" s="32"/>
       <c r="J20" s="10"/>
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="14"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="29"/>
+      <c r="G21" s="34"/>
       <c r="H21" s="31"/>
-      <c r="I21" s="30"/>
+      <c r="I21" s="32"/>
       <c r="J21" s="10"/>
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="29"/>
+      <c r="G22" s="34"/>
       <c r="H22" s="31"/>
-      <c r="I22" s="30"/>
+      <c r="I22" s="32"/>
       <c r="J22" s="10"/>
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="29"/>
+      <c r="G23" s="34"/>
       <c r="H23" s="31"/>
-      <c r="I23" s="30"/>
+      <c r="I23" s="32"/>
       <c r="J23" s="10"/>
       <c r="K23" s="5"/>
     </row>
@@ -1739,21 +1773,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
     <mergeCell ref="C4:C23"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="G4:I4"/>
@@ -1770,6 +1789,21 @@
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="D10:D18"/>
     <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1778,44 +1812,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}">
-  <dimension ref="B2:O8"/>
+  <dimension ref="B2:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1:R1048576"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" customWidth="1"/>
-    <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="9.125" customWidth="1"/>
-    <col min="15" max="15" width="28.875" customWidth="1"/>
+    <col min="3" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
+    <col min="10" max="11" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="45" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="46" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="47"/>
@@ -1825,18 +1861,19 @@
       <c r="L2" s="48"/>
       <c r="M2" s="48"/>
       <c r="N2" s="48"/>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="48"/>
+      <c r="P2" s="44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="51"/>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="50"/>
       <c r="G3" s="49"/>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="24" t="s">
         <v>28</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -1857,9 +1894,12 @@
       <c r="N3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="46"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="45"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1900,10 +1940,13 @@
         <v>42</v>
       </c>
       <c r="O4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1944,66 +1987,111 @@
         <v>23</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="21"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="22">
+        <v>11</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1</v>
+      </c>
+      <c r="G6" s="22">
+        <v>321</v>
+      </c>
+      <c r="H6" s="22">
+        <v>3</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1</v>
+      </c>
+      <c r="J6" s="23">
+        <v>2</v>
+      </c>
+      <c r="K6" s="22">
+        <v>10</v>
+      </c>
+      <c r="L6" s="22">
+        <v>1</v>
+      </c>
+      <c r="M6" s="23">
+        <v>0</v>
+      </c>
+      <c r="N6" s="23">
+        <v>0</v>
+      </c>
+      <c r="O6" s="23">
+        <v>0</v>
+      </c>
+      <c r="P6" s="19"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="21">
+        <v>2</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="22">
+        <v>12</v>
+      </c>
+      <c r="F7" s="22">
+        <v>1</v>
+      </c>
+      <c r="G7" s="22">
+        <v>321</v>
+      </c>
+      <c r="H7" s="22">
+        <v>2</v>
+      </c>
+      <c r="I7" s="23">
+        <v>1</v>
+      </c>
+      <c r="J7" s="23">
+        <v>2</v>
+      </c>
+      <c r="K7" s="22">
+        <v>5</v>
+      </c>
+      <c r="L7" s="22">
+        <v>1</v>
+      </c>
+      <c r="M7" s="23">
+        <v>0</v>
+      </c>
+      <c r="N7" s="23">
+        <v>0</v>
+      </c>
+      <c r="O7" s="23">
+        <v>0</v>
+      </c>
+      <c r="P7" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:O5" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}"/>
+  <autoFilter ref="B5:P5" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}"/>
   <mergeCells count="8">
-    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="H2:O2"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="F2:F3"/>
   </mergeCells>
@@ -2015,8 +2103,8 @@
     <brk id="7" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
-    <brk id="1" max="8" man="1"/>
-    <brk id="14" max="8" man="1"/>
+    <brk id="2" max="7" man="1"/>
+    <brk id="15" max="8" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/ExcelData/Data_Table/ItemTable.xlsx
+++ b/ExcelData/Data_Table/ItemTable.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99174690-75AD-4BF5-AC30-F1B9B7EDFA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408B4B94-0984-47C4-B043-D51E6F2B73F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="22530" windowHeight="12210" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
   <sheets>
-    <sheet name="TableList" sheetId="2" r:id="rId1"/>
-    <sheet name="Soul_Table" sheetId="1" r:id="rId2"/>
+    <sheet name="ItemTableTable" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Soul_Table!$B$5:$P$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Soul_Table!$A$1:$P$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ItemTableTable!$B$5:$P$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ItemTableTable!$A$1:$P$8</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -373,7 +372,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>번호</t>
   </si>
@@ -406,36 +405,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>참조 테이블</t>
-  </si>
-  <si>
-    <t>대분류</t>
-  </si>
-  <si>
-    <t>한글명</t>
-  </si>
-  <si>
-    <t>영문명</t>
-  </si>
-  <si>
-    <t>변수형</t>
-  </si>
-  <si>
-    <t>설명</t>
-  </si>
-  <si>
-    <t>Reference_Table</t>
-  </si>
-  <si>
-    <t>List_Group</t>
-  </si>
-  <si>
-    <t>Data_Type</t>
-  </si>
-  <si>
-    <t>Comment</t>
   </si>
   <si>
     <t>인덱스</t>
@@ -585,7 +554,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,36 +634,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,20 +664,8 @@
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -772,43 +705,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -834,26 +730,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -871,57 +747,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -954,11 +779,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -967,148 +792,52 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1424,393 +1153,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC81B856-C114-4C3E-ABCC-32CC9B6ACE2F}">
-  <dimension ref="A1:K24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:J23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="1.75" customWidth="1"/>
-    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="9" width="11.25" customWidth="1"/>
-    <col min="10" max="10" width="49.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="C4:C23"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D10:D18"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}">
   <dimension ref="B2:P7"/>
   <sheetViews>
@@ -1836,68 +1178,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="44" t="s">
+      <c r="E2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="24" t="s">
-        <v>28</v>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="45"/>
+        <v>33</v>
+      </c>
+      <c r="P3" s="14"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -1910,37 +1252,37 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>9</v>
@@ -1957,131 +1299,131 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="21">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="22">
+      <c r="C6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="9">
         <v>11</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="9">
         <v>1</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="9">
         <v>321</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="9">
         <v>3</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="10">
         <v>1</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="10">
         <v>2</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="9">
         <v>10</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="9">
         <v>1</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="10">
         <v>0</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="10">
         <v>0</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="10">
         <v>0</v>
       </c>
-      <c r="P6" s="19"/>
+      <c r="P6" s="6"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="21">
+      <c r="B7" s="8">
         <v>2</v>
       </c>
-      <c r="C7" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="22">
+      <c r="C7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="9">
         <v>12</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="9">
         <v>1</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="9">
         <v>321</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="9">
         <v>2</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="10">
         <v>1</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="10">
         <v>2</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="9">
         <v>5</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="9">
         <v>1</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="10">
         <v>0</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="10">
         <v>0</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="10">
         <v>0</v>
       </c>
-      <c r="P7" s="20"/>
+      <c r="P7" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="B5:P5" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}"/>

--- a/ExcelData/Data_Table/ItemTable.xlsx
+++ b/ExcelData/Data_Table/ItemTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408B4B94-0984-47C4-B043-D51E6F2B73F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E353EC-4D37-4A46-98F0-7C9B8639B42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="22530" windowHeight="12210" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="14955" windowHeight="10320" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemTableTable" sheetId="1" r:id="rId1"/>
@@ -411,10 +411,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Index</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -547,6 +543,10 @@
   </si>
   <si>
     <t>가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemTableIndex</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1160,14 +1160,15 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="3" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.125" customWidth="1"/>
     <col min="10" max="11" width="8.75" bestFit="1" customWidth="1"/>
@@ -1191,10 +1192,10 @@
         <v>11</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="17"/>
@@ -1216,28 +1217,28 @@
       <c r="F3" s="19"/>
       <c r="G3" s="18"/>
       <c r="H3" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P3" s="14"/>
     </row>
@@ -1252,37 +1253,37 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>9</v>
@@ -1299,37 +1300,37 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>10</v>
@@ -1340,10 +1341,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="E6" s="9">
         <v>11</v>
@@ -1385,10 +1386,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="9">
         <v>12</v>
